--- a/algorithm/data/iris_kmeans.xlsx
+++ b/algorithm/data/iris_kmeans.xlsx
@@ -967,7 +967,7 @@
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
